--- a/src/public/exports/thong-ke-danh-sach-Bao-loi.xlsx
+++ b/src/public/exports/thong-ke-danh-sach-Bao-loi.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,24 +405,84 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>lỗi quá</v>
+        <v>Lỗi Này</v>
       </c>
       <c r="C2" t="str">
-        <v>Lỗi khác</v>
+        <v xml:space="preserve">Lỗi này rất lớn và rất nhiều nhỉ </v>
       </c>
       <c r="D2" t="str">
         <v>31-10-2022</v>
       </c>
       <c r="E2" t="str">
+        <v>Nguyễn Văn A</v>
+      </c>
+      <c r="F2" t="str">
+        <v>nguyenvanaghj@gmail.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>lỗi quá</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Lỗi khác</v>
+      </c>
+      <c r="D3" t="str">
+        <v>31-10-2022</v>
+      </c>
+      <c r="E3" t="str">
         <v>Lê Đình Lan</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" t="str">
         <v>Ldlan122b7@gmail.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>đasadas</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Lỗi khác</v>
+      </c>
+      <c r="D4" t="str">
+        <v>16-11-2022</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Lê Đình Lan</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ldlan12b7@gmail.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ádsadsadasdsa</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Nội dung chưa phù hợp</v>
+      </c>
+      <c r="D5" t="str">
+        <v>16-11-2022</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Lê Đình Lan</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Ldlan12b7@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/public/exports/thong-ke-danh-sach-Bao-loi.xlsx
+++ b/src/public/exports/thong-ke-danh-sach-Bao-loi.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,19 +405,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Lỗi Này</v>
+        <v>nội dung bị lỗi</v>
       </c>
       <c r="C2" t="str">
-        <v xml:space="preserve">Lỗi này rất lớn và rất nhiều nhỉ </v>
+        <v>Sai nội dung</v>
       </c>
       <c r="D2" t="str">
-        <v>31-10-2022</v>
+        <v>04-12-2022</v>
       </c>
       <c r="E2" t="str">
-        <v>Nguyễn Văn A</v>
+        <v>Nguyễn Huy123</v>
       </c>
       <c r="F2" t="str">
-        <v>nguyenvanaghj@gmail.com</v>
+        <v>nvh201001@gmail.com</v>
       </c>
     </row>
     <row r="3">
@@ -425,19 +425,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>lỗi quá</v>
+        <v>sai nội dung</v>
       </c>
       <c r="C3" t="str">
-        <v>Lỗi khác</v>
+        <v>Sai nội dung</v>
       </c>
       <c r="D3" t="str">
-        <v>31-10-2022</v>
+        <v>04-12-2022</v>
       </c>
       <c r="E3" t="str">
-        <v>Lê Đình Lan</v>
+        <v>Nguyễn Huy123</v>
       </c>
       <c r="F3" t="str">
-        <v>Ldlan122b7@gmail.com</v>
+        <v>nvh201001@gmail.com</v>
       </c>
     </row>
     <row r="4">
@@ -445,44 +445,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>đasadas</v>
+        <v>sai nội dung</v>
       </c>
       <c r="C4" t="str">
-        <v>Lỗi khác</v>
+        <v>Sai nội dung</v>
       </c>
       <c r="D4" t="str">
-        <v>16-11-2022</v>
+        <v>04-12-2022</v>
       </c>
       <c r="E4" t="str">
-        <v>Lê Đình Lan</v>
+        <v>Nguyễn Huy123</v>
       </c>
       <c r="F4" t="str">
-        <v>Ldlan12b7@gmail.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ádsadsadasdsa</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Nội dung chưa phù hợp</v>
-      </c>
-      <c r="D5" t="str">
-        <v>16-11-2022</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Lê Đình Lan</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Ldlan12b7@gmail.com</v>
+        <v>nvh201001@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>